--- a/data/Inventory-consumptiom.xlsx
+++ b/data/Inventory-consumptiom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiebach/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiebach/Documents/11. semester/git/Speciale/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A2EB18-FFEE-7445-A552-98837BA5190F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD0E7E9-59EB-A045-80C8-D19A6657A489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
+    <workbookView xWindow="29040" yWindow="-60" windowWidth="17940" windowHeight="16100" firstSheet="12" activeTab="13" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -26,23 +26,23 @@
     <sheet name="Priority 10" sheetId="27" r:id="rId11"/>
     <sheet name="Priority 11" sheetId="28" r:id="rId12"/>
     <sheet name="Priority 12" sheetId="29" r:id="rId13"/>
-    <sheet name="Priority 13 INGEN DATA" sheetId="30" r:id="rId14"/>
+    <sheet name="Priority 13" sheetId="30" r:id="rId14"/>
     <sheet name="Priority 14" sheetId="31" r:id="rId15"/>
     <sheet name="Priority 15" sheetId="17" r:id="rId16"/>
     <sheet name="Priority 16" sheetId="16" r:id="rId17"/>
-    <sheet name="Priority 17 - Stacking" sheetId="15" r:id="rId18"/>
-    <sheet name="Priority 17 - Binge" sheetId="14" r:id="rId19"/>
-    <sheet name="Priority 18" sheetId="13" r:id="rId20"/>
-    <sheet name="Priority 19" sheetId="12" r:id="rId21"/>
-    <sheet name="Priority 20" sheetId="11" r:id="rId22"/>
-    <sheet name="Priority 21" sheetId="10" r:id="rId23"/>
-    <sheet name="Priority 22" sheetId="9" r:id="rId24"/>
-    <sheet name="Priority 23" sheetId="8" r:id="rId25"/>
-    <sheet name="Priority 24" sheetId="7" r:id="rId26"/>
-    <sheet name="Priority 25" sheetId="6" r:id="rId27"/>
-    <sheet name="Priority 26" sheetId="2" r:id="rId28"/>
-    <sheet name="Priority 27" sheetId="5" r:id="rId29"/>
-    <sheet name="Priority 28" sheetId="4" r:id="rId30"/>
+    <sheet name="Priority 17" sheetId="15" r:id="rId18"/>
+    <sheet name="Priority 18" sheetId="13" r:id="rId19"/>
+    <sheet name="Priority 19" sheetId="12" r:id="rId20"/>
+    <sheet name="Priority 20" sheetId="11" r:id="rId21"/>
+    <sheet name="Priority 21" sheetId="10" r:id="rId22"/>
+    <sheet name="Priority 22" sheetId="9" r:id="rId23"/>
+    <sheet name="Priority 23" sheetId="8" r:id="rId24"/>
+    <sheet name="Priority 24" sheetId="7" r:id="rId25"/>
+    <sheet name="Priority 25" sheetId="6" r:id="rId26"/>
+    <sheet name="Priority 26" sheetId="2" r:id="rId27"/>
+    <sheet name="Priority 27" sheetId="5" r:id="rId28"/>
+    <sheet name="Priority 28" sheetId="4" r:id="rId29"/>
+    <sheet name="Priority 29" sheetId="14" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -719,35 +719,35 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>17.399999999999999</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>17.399999999999999</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>13.2</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -762,35 +762,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>11.6</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>11.6</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -805,35 +805,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -848,35 +848,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>3.36</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>1.96</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>1.68</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
@@ -891,35 +891,35 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -934,35 +934,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -977,35 +977,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>24.3</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>38.880000000000003</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>22.68</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>19.440000000000001</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -1020,35 +1020,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>3.84</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>1.92</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -1063,35 +1063,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -1106,35 +1106,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>1.44</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0.72</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -1324,35 +1324,35 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>37.799999999999997</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>43.8</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -1367,35 +1367,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>25.2</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>29.2</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -1410,35 +1410,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -1453,35 +1453,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>2.97</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>3.87</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
@@ -1496,35 +1496,35 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.99</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>1.29</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -1539,35 +1539,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>26.07</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>33.97</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -1582,35 +1582,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>1.98</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>2.58</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -1625,35 +1625,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0.99</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>1.29</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -1668,35 +1668,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -1711,35 +1711,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -1929,35 +1929,35 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -1972,35 +1972,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -2015,35 +2015,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -2058,35 +2058,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
@@ -2101,35 +2101,35 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -2144,35 +2144,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -2187,35 +2187,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -2230,35 +2230,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -2273,35 +2273,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -2316,35 +2316,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -2534,35 +2534,35 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>31.6</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -2577,35 +2577,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>47.4</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -2620,35 +2620,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -2663,35 +2663,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>1.65</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
@@ -2706,35 +2706,35 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.66</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -2749,35 +2749,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -2792,35 +2792,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>26.73</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>19.440000000000001</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>19.440000000000001</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -2835,35 +2835,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>2.97</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>2.16</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>2.16</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -2878,35 +2878,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -2921,35 +2921,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0.99</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0.72</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0.72</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -3034,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EE21B6-4F98-EC41-AD07-B655DE7EC89F}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3077,13 +3077,27 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>72</v>
+      </c>
+      <c r="F2" s="2">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3094,13 +3108,27 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3111,38 +3139,40 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>50.4</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>67.2</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>50.4</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3152,38 +3182,40 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>21.6</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>28.8</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>21.6</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3193,38 +3225,40 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -3234,38 +3268,40 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.37</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.37</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3275,38 +3311,40 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3316,38 +3354,40 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>12.95</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>17.5</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>12.95</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3357,38 +3397,40 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>22.57</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>30.5</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>22.57</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -3398,38 +3440,40 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -3439,38 +3483,40 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -3480,38 +3526,40 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -3520,14 +3568,30 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3537,17 +3601,33 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3636,35 +3716,35 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2"/>
@@ -3677,35 +3757,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2"/>
@@ -3718,35 +3798,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2"/>
@@ -3759,35 +3839,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2"/>
@@ -3800,35 +3880,35 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
@@ -3841,35 +3921,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2"/>
@@ -3882,35 +3962,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2"/>
@@ -3923,35 +4003,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2"/>
@@ -3964,35 +4044,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2"/>
@@ -4005,35 +4085,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="2"/>
@@ -4221,35 +4301,35 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>63.7</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>63.7</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>84.28</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>63.7</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>63.7</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>59.78</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -4264,35 +4344,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>1.3</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>1.72</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>1.22</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -4307,35 +4387,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2"/>
@@ -4348,35 +4428,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2"/>
@@ -4389,35 +4469,35 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
@@ -4430,35 +4510,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>13.2</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>13.2</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>17.2</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>13.2</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>13.2</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>12.4</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -4473,35 +4553,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>16.170000000000002</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>16.170000000000002</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>21.07</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>16.170000000000002</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>16.170000000000002</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>15.19</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -4516,35 +4596,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2"/>
@@ -4557,35 +4637,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>3.63</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>3.63</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>4.7300000000000004</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>3.63</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>3.63</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>3.41</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -4600,35 +4680,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="2"/>
@@ -5316,7 +5396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9FAA08-E592-C546-9EFE-84136B2EB78D}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -5918,1213 +5998,6 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E019A930-7FD5-9840-88F3-540B1513F9CC}">
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C1">
-        <v>-2</v>
-      </c>
-      <c r="D1">
-        <v>-1</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>3</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-      <c r="J1">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>60</v>
-      </c>
-      <c r="F3" s="2">
-        <v>140</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <f>C2*$K4/100</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <f>C2*$K5/100</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <f>C2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <f>C$3*$K7/100</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <f>C$3*$K8/100</f>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="4"/>
-        <v>77</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="4"/>
-        <v>21.6</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="4"/>
-        <v>50.4</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="4"/>
-        <v>5.4</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="4"/>
-        <v>12.6</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <f>SUM(K7:K13)</f>
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EBEBB4-5268-F740-9C83-545EE2B2DD51}">
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C1">
-        <v>-2</v>
-      </c>
-      <c r="D1">
-        <v>-1</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>3</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-      <c r="J1">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>86</v>
-      </c>
-      <c r="D2" s="2">
-        <v>86</v>
-      </c>
-      <c r="E2" s="2">
-        <v>114</v>
-      </c>
-      <c r="F2" s="2">
-        <v>114</v>
-      </c>
-      <c r="G2" s="2">
-        <v>86</v>
-      </c>
-      <c r="H2" s="2">
-        <v>86</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <f>C2*$K4/100</f>
-        <v>82.56</v>
-      </c>
-      <c r="D4" s="1">
-        <f>D2*$K4/100</f>
-        <v>82.56</v>
-      </c>
-      <c r="E4" s="1">
-        <f>E2*$K4/100</f>
-        <v>109.44</v>
-      </c>
-      <c r="F4" s="1">
-        <f>F2*$K4/100</f>
-        <v>109.44</v>
-      </c>
-      <c r="G4" s="1">
-        <f>G2*$K4/100</f>
-        <v>82.56</v>
-      </c>
-      <c r="H4" s="1">
-        <f>H2*$K4/100</f>
-        <v>82.56</v>
-      </c>
-      <c r="I4" s="1">
-        <f>I2*$K4/100</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <f>J2*$K4/100</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <f>C2*$K5/100</f>
-        <v>3.44</v>
-      </c>
-      <c r="D5" s="1">
-        <f>D2*$K5/100</f>
-        <v>3.44</v>
-      </c>
-      <c r="E5" s="1">
-        <f>E2*$K5/100</f>
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="F5" s="1">
-        <f>F2*$K5/100</f>
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="G5" s="1">
-        <f>G2*$K5/100</f>
-        <v>3.44</v>
-      </c>
-      <c r="H5" s="1">
-        <f>H2*$K5/100</f>
-        <v>3.44</v>
-      </c>
-      <c r="I5" s="1">
-        <f>I2*$K5/100</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <f>J2*$K5/100</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <f>C$3*$K7/100</f>
-        <v>0.63</v>
-      </c>
-      <c r="D7">
-        <f>D$3*$K7/100</f>
-        <v>0.63</v>
-      </c>
-      <c r="E7">
-        <f>E$3*$K7/100</f>
-        <v>0.84</v>
-      </c>
-      <c r="F7">
-        <f>F$3*$K7/100</f>
-        <v>0.84</v>
-      </c>
-      <c r="G7">
-        <f>G$3*$K7/100</f>
-        <v>0.63</v>
-      </c>
-      <c r="H7">
-        <f>H$3*$K7/100</f>
-        <v>0.63</v>
-      </c>
-      <c r="I7">
-        <f>I$3*$K7/100</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>J$3*$K7/100</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <f>C$3*$K8/100</f>
-        <v>0.21</v>
-      </c>
-      <c r="D8">
-        <f>D$3*$K8/100</f>
-        <v>0.21</v>
-      </c>
-      <c r="E8">
-        <f>E$3*$K8/100</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F8">
-        <f>F$3*$K8/100</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G8">
-        <f>G$3*$K8/100</f>
-        <v>0.21</v>
-      </c>
-      <c r="H8">
-        <f>H$3*$K8/100</f>
-        <v>0.21</v>
-      </c>
-      <c r="I8">
-        <f>I$3*$K8/100</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>J$3*$K8/100</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <f>C$3*$K9/100</f>
-        <v>3.99</v>
-      </c>
-      <c r="D9">
-        <f>D$3*$K9/100</f>
-        <v>3.99</v>
-      </c>
-      <c r="E9">
-        <f>E$3*$K9/100</f>
-        <v>5.32</v>
-      </c>
-      <c r="F9">
-        <f>F$3*$K9/100</f>
-        <v>5.32</v>
-      </c>
-      <c r="G9">
-        <f>G$3*$K9/100</f>
-        <v>3.99</v>
-      </c>
-      <c r="H9">
-        <f>H$3*$K9/100</f>
-        <v>3.99</v>
-      </c>
-      <c r="I9">
-        <f>I$3*$K9/100</f>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>J$3*$K9/100</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <f>C$3*$K10/100</f>
-        <v>14.91</v>
-      </c>
-      <c r="D10">
-        <f>D$3*$K10/100</f>
-        <v>14.91</v>
-      </c>
-      <c r="E10">
-        <f>E$3*$K10/100</f>
-        <v>19.88</v>
-      </c>
-      <c r="F10">
-        <f>F$3*$K10/100</f>
-        <v>19.88</v>
-      </c>
-      <c r="G10">
-        <f>G$3*$K10/100</f>
-        <v>14.91</v>
-      </c>
-      <c r="H10">
-        <f>H$3*$K10/100</f>
-        <v>14.91</v>
-      </c>
-      <c r="I10">
-        <f>I$3*$K10/100</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>J$3*$K10/100</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <f>C$3*$K11/100</f>
-        <v>0.63</v>
-      </c>
-      <c r="D11">
-        <f>D$3*$K11/100</f>
-        <v>0.63</v>
-      </c>
-      <c r="E11">
-        <f>E$3*$K11/100</f>
-        <v>0.84</v>
-      </c>
-      <c r="F11">
-        <f>F$3*$K11/100</f>
-        <v>0.84</v>
-      </c>
-      <c r="G11">
-        <f>G$3*$K11/100</f>
-        <v>0.63</v>
-      </c>
-      <c r="H11">
-        <f>H$3*$K11/100</f>
-        <v>0.63</v>
-      </c>
-      <c r="I11">
-        <f>I$3*$K11/100</f>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f>J$3*$K11/100</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <f>C$3*$K12/100</f>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f>D$3*$K12/100</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>E$3*$K12/100</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>F$3*$K12/100</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f>G$3*$K12/100</f>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f>H$3*$K12/100</f>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f>I$3*$K12/100</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>J$3*$K12/100</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <f>C$3*$K13/100</f>
-        <v>0.63</v>
-      </c>
-      <c r="D13">
-        <f>D$3*$K13/100</f>
-        <v>0.63</v>
-      </c>
-      <c r="E13">
-        <f>E$3*$K13/100</f>
-        <v>0.84</v>
-      </c>
-      <c r="F13">
-        <f>F$3*$K13/100</f>
-        <v>0.84</v>
-      </c>
-      <c r="G13">
-        <f>G$3*$K13/100</f>
-        <v>0.63</v>
-      </c>
-      <c r="H13">
-        <f>H$3*$K13/100</f>
-        <v>0.63</v>
-      </c>
-      <c r="I13">
-        <f>I$3*$K13/100</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>J$3*$K13/100</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F53B346-D6CA-9D4C-86C0-CCD3D74D1B59}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -7729,7 +6602,609 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EBEBB4-5268-F740-9C83-545EE2B2DD51}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>-2</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>86</v>
+      </c>
+      <c r="D2" s="2">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2">
+        <v>114</v>
+      </c>
+      <c r="F2" s="2">
+        <v>114</v>
+      </c>
+      <c r="G2" s="2">
+        <v>86</v>
+      </c>
+      <c r="H2" s="2">
+        <v>86</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
+        <v>82.56</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>82.56</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>109.44</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>109.44</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>82.56</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>82.56</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
+        <v>3.44</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.44</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.44</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.44</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
+        <v>0.63</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>0.84</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0.84</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>0.21</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0.21</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.21</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.21</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>3.99</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>3.99</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>5.32</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>5.32</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>3.99</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>3.99</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>14.91</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>14.91</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>19.88</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>19.88</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>14.91</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>14.91</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>0.84</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.84</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0.84</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.84</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0900FE42-DEF3-AD4D-8233-E77D6BFF956F}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -8334,7 +7809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320E5E6B-3822-3D48-AD5A-C084835E6C97}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -8939,7 +8414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6FD59A-06A5-DE48-9C20-BF9F17ADA0DB}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -9544,7 +9019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF3BE59-215C-EE49-89C1-0F21BAD178F3}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -10149,7 +9624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BC04C9-2A50-3841-A76A-45FF9CCFEBDF}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -10754,7 +10229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98139FF4-5EF9-48AB-AD2E-1490E3453223}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -11359,7 +10834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BE8964-CA55-4475-89B3-D4B21D459457}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -11964,7 +11439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEDE395-0630-4947-BD2E-BFEB85EC1F82}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -12566,7 +12041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E90B9F-DA55-4702-8030-4984ED7D0638}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -13164,6 +12639,611 @@
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F4849A-F22D-4D8B-BCE3-A3F6FA1BF8CD}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>-2</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2">
+        <v>70</v>
+      </c>
+      <c r="G2" s="2">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>$C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:I6" si="2">$C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f>$C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>C$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>C$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(K7:K13)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13280,35 +13360,35 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -13323,35 +13403,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -13366,35 +13446,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -13409,35 +13489,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
@@ -13452,35 +13532,35 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -13495,35 +13575,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>7.14</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>4.25</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>2.89</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>2.89</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -13538,35 +13618,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>31.5</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>18.75</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>12.75</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>12.75</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -13581,35 +13661,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -13624,35 +13704,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>1.26</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -13667,35 +13747,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>1.26</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -13777,11 +13857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F4849A-F22D-4D8B-BCE3-A3F6FA1BF8CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E019A930-7FD5-9840-88F3-540B1513F9CC}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13827,13 +13907,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -13858,10 +13938,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -13894,15 +13974,15 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>66.5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>66.5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -13917,7 +13997,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -13937,15 +14017,15 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
@@ -13960,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -13971,11 +14051,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f>C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:I6" si="2">$C2*$K6/100</f>
+        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="E6" s="1">
@@ -13999,7 +14079,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -14109,11 +14189,11 @@
       </c>
       <c r="E9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
@@ -14132,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -14152,11 +14232,11 @@
       </c>
       <c r="E10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
@@ -14175,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -14238,11 +14318,11 @@
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
@@ -14261,7 +14341,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -14327,16 +14407,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -14354,26 +14434,26 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -14490,35 +14570,35 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>63.9</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>81.900000000000006</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -14533,35 +14613,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>7.1</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>9.1</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -14576,35 +14656,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -14619,35 +14699,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>3.35</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>4.2</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>3.35</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
@@ -14662,35 +14742,35 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>2.68</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>3.36</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>2.68</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -14705,35 +14785,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>7.37</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>9.24</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>7.37</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -14748,35 +14828,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>51.59</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>64.680000000000007</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>51.59</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -14791,35 +14871,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>2.0099999999999998</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>2.52</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>2.0099999999999998</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -14834,35 +14914,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -14877,35 +14957,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -15095,35 +15175,35 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>162</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -15138,35 +15218,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -15181,35 +15261,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -15224,35 +15304,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
@@ -15267,35 +15347,35 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -15310,35 +15390,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -15353,35 +15433,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>46.2</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -15396,35 +15476,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -15439,35 +15519,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -15482,35 +15562,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -15700,35 +15780,35 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -15743,35 +15823,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -15786,35 +15866,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -15829,35 +15909,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
@@ -15872,35 +15952,35 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -15915,35 +15995,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -15958,35 +16038,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -16001,35 +16081,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -16044,35 +16124,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -16087,35 +16167,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -16305,35 +16385,35 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>141.12</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>63.36</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>63.36</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>42.24</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -16348,35 +16428,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>5.88</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>2.64</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>2.64</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>1.76</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -16391,35 +16471,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -16434,35 +16514,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>2.56</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>1.28</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>1.28</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>1.28</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
@@ -16477,35 +16557,35 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>1.28</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -16520,35 +16600,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -16563,35 +16643,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>56.96</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>28.48</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>28.48</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>28.48</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -16606,35 +16686,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -16649,35 +16729,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -16692,35 +16772,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -16910,35 +16990,35 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>80.959999999999994</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -16953,35 +17033,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>7.04</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -16996,35 +17076,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -17039,35 +17119,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
@@ -17082,35 +17162,35 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -17125,35 +17205,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -17168,35 +17248,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -17211,35 +17291,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -17254,35 +17334,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -17297,35 +17377,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -17515,35 +17595,35 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
         <v>37</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="E4" s="1">
-        <f>E2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="F4" s="1">
-        <f>F2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="G4" s="1">
-        <f>G2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="H4" s="1">
-        <f>H2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="I4" s="1">
-        <f>I2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>J2*$K4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -17558,35 +17638,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>C2*$K5/100</f>
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
         <v>37</v>
       </c>
       <c r="D5" s="1">
-        <f>D2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="E5" s="1">
-        <f>E2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="F5" s="1">
-        <f>F2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="G5" s="1">
-        <f>G2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="H5" s="1">
-        <f>H2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="I5" s="1">
-        <f>I2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f>J2*$K5/100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -17601,35 +17681,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -17644,35 +17724,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C$3*$K7/100</f>
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
         <v>1.47</v>
       </c>
       <c r="D7">
-        <f>D$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>1.47</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>1.89</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>1.47</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>1.47</v>
       </c>
       <c r="H7">
-        <f>H$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>1.33</v>
       </c>
       <c r="I7">
-        <f>I$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J$3*$K7/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
@@ -17687,35 +17767,35 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.63</v>
       </c>
       <c r="D8">
-        <f>D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.63</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.81</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.63</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.63</v>
       </c>
       <c r="H8">
-        <f>H$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="I8">
-        <f>I$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>J$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -17730,35 +17810,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>H$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>I$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J$3*$K9/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -17773,35 +17853,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>17.010000000000002</v>
       </c>
       <c r="D10">
-        <f>D$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>17.010000000000002</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>21.87</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>17.010000000000002</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>17.010000000000002</v>
       </c>
       <c r="H10">
-        <f>H$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>15.39</v>
       </c>
       <c r="I10">
-        <f>I$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J$3*$K10/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -17816,35 +17896,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
       <c r="D11">
-        <f>D$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>1.08</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
       <c r="H11">
-        <f>H$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0.76</v>
       </c>
       <c r="I11">
-        <f>I$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J$3*$K11/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -17859,35 +17939,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>1.05</v>
       </c>
       <c r="D12">
-        <f>D$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>1.05</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>1.35</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>1.05</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>1.05</v>
       </c>
       <c r="H12">
-        <f>H$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
       <c r="I12">
-        <f>I$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J$3*$K12/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -17902,35 +17982,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>D$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>H$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>I$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J$3*$K13/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
